--- a/02_MasterWifoMannheim/99_Backup/Course103.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course103.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD32051265F5928115929E8F04BC7FA61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51D9D1EB-2357-483E-9BEA-C5FB7C00188F}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>IS 742 Seminar Trends in Enterprise Systems</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>This module is a research seminar where state-of-the-art research topics are discussed. Students systematically explore a research topic from the enterprise systems domain. They present their work in class for discussion and will write a seminar paper, following academic guidelines.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>After completing this seminar, students will be able to summarize a current research topic from the enterprise systems domain and put it into the context of related work. They will know to evaluate extant work and how to communicate the insights academically in a written report. Students will also learn and train presentation skills, too.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:Application via email (Motivation letter, Transcript of Records and CV) to applicat@mail.uni-mannheim.de; Application deadline will be announced via Portal2 and the Chair’s homepage</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Seminar 2 10</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written report and presentation</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Hartmut Höhle</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester and Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. Bus. Edu., M.Sc. Bus. Inf.</t>
-  </si>
-  <si>
-    <t>IS 540</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IS 742 Seminar Trends in Enterprise Systems</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This module is a research seminar where state-of-the-art research topics are discussed. Students systematically explore a research topic from the enterprise systems domain. They present their work in class for discussion and will write a seminar paper, following academic guidelines.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>After completing this seminar, students will be able to summarize a current research topic from the enterprise systems domain and put it into the context of related work. They will know to evaluate extant work and how to communicate the insights academically in a written report. Students will also learn and train presentation skills, too.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IS 540</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:Application via email (Motivation letter, Transcript of Records and CV) to applicat@mail.uni-mannheim.de; Application deadline will be announced via Portal2 and the Chair’s homepage</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Seminar 2 10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written report and presentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Hartmut Höhle</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Continuously</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. Bus. Edu., M.Sc. Bus. Inf.</t>
+        </is>
       </c>
     </row>
   </sheetData>
